--- a/df_test.xlsx
+++ b/df_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marjan/test_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F05B290-A44F-BE49-85B2-76B59EC63182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BBB774-7515-9343-9522-68912BE0E87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="16640" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
